--- a/output/graficos/tcp/tcp_mujeres_informalidad.xlsx
+++ b/output/graficos/tcp/tcp_mujeres_informalidad.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,350 +404,3525 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ene_2020_09</t>
+          <t>ene_2010_02</t>
         </is>
       </c>
       <c r="B2">
-        <v>164039.575644544</v>
+        <v>314259.9037708395</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>44075</v>
+        <v>40210</v>
       </c>
       <c r="F2">
-        <v>66596.18273390549</v>
+        <v>172262.4960982675</v>
       </c>
       <c r="G2">
-        <v>0.406</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ene_2020_10</t>
+          <t>ene_2010_03</t>
         </is>
       </c>
       <c r="B3">
-        <v>184439.7967150172</v>
+        <v>322672.5528782579</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>44105</v>
+        <v>40238</v>
       </c>
       <c r="F3">
-        <v>76233.4083275149</v>
+        <v>180314.7315368232</v>
       </c>
       <c r="G3">
-        <v>0.413</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ene_2020_11</t>
+          <t>ene_2010_04</t>
         </is>
       </c>
       <c r="B4">
-        <v>190495.1837860133</v>
+        <v>320161.5527808858</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>44136</v>
+        <v>40269</v>
       </c>
       <c r="F4">
-        <v>78848.67817995341</v>
+        <v>180974.8879835694</v>
       </c>
       <c r="G4">
-        <v>0.414</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ene_2020_12</t>
+          <t>ene_2010_05</t>
         </is>
       </c>
       <c r="B5">
-        <v>191761.8784604615</v>
+        <v>317546.7117388005</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>44166</v>
+        <v>40299</v>
       </c>
       <c r="F5">
-        <v>87875.6797195746</v>
+        <v>176985.0362509125</v>
       </c>
       <c r="G5">
-        <v>0.458</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ene_2021_01</t>
+          <t>ene_2010_06</t>
         </is>
       </c>
       <c r="B6">
-        <v>191061.6390015191</v>
+        <v>328410.4703732765</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>44197</v>
+        <v>40330</v>
       </c>
       <c r="F6">
-        <v>87617.06909505287</v>
+        <v>182082.4898344634</v>
       </c>
       <c r="G6">
-        <v>0.459</v>
+        <v>0.5540000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ene_2021_02</t>
+          <t>ene_2010_07</t>
         </is>
       </c>
       <c r="B7">
-        <v>196965.2337081053</v>
+        <v>327833.9996376494</v>
       </c>
       <c r="C7">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>44228</v>
+        <v>40360</v>
       </c>
       <c r="F7">
-        <v>88398.09196287178</v>
+        <v>183222.6241361112</v>
       </c>
       <c r="G7">
-        <v>0.449</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ene_2021_03</t>
+          <t>ene_2010_08</t>
         </is>
       </c>
       <c r="B8">
-        <v>195461.137628981</v>
+        <v>325913.9479639234</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>44256</v>
+        <v>40391</v>
       </c>
       <c r="F8">
-        <v>78799.6051524542</v>
+        <v>185496.7161094132</v>
       </c>
       <c r="G8">
-        <v>0.403</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ene_2021_04</t>
+          <t>ene_2010_09</t>
         </is>
       </c>
       <c r="B9">
-        <v>197131.455702093</v>
+        <v>320907.2316501271</v>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>44287</v>
+        <v>40422</v>
       </c>
       <c r="F9">
-        <v>78225.15936139587</v>
+        <v>181005.4040038324</v>
       </c>
       <c r="G9">
-        <v>0.397</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ene_2021_05</t>
+          <t>ene_2010_10</t>
         </is>
       </c>
       <c r="B10">
-        <v>190195.9142827009</v>
+        <v>329650.8479659163</v>
       </c>
       <c r="C10">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>44317</v>
+        <v>40452</v>
       </c>
       <c r="F10">
-        <v>79509.56670808405</v>
+        <v>192308.8117883578</v>
       </c>
       <c r="G10">
-        <v>0.418</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ene_2021_06</t>
+          <t>ene_2010_11</t>
         </is>
       </c>
       <c r="B11">
-        <v>197311.2401013848</v>
+        <v>330437.8548646062</v>
       </c>
       <c r="C11">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>44348</v>
+        <v>40483</v>
       </c>
       <c r="F11">
-        <v>86714.73119030202</v>
+        <v>188161.2932472479</v>
       </c>
       <c r="G11">
-        <v>0.439</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ene_2021_07</t>
+          <t>ene_2010_12</t>
         </is>
       </c>
       <c r="B12">
-        <v>203028.3863178733</v>
+        <v>327502.9063590592</v>
       </c>
       <c r="C12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2">
-        <v>44378</v>
+        <v>40513</v>
       </c>
       <c r="F12">
-        <v>92924.7739231006</v>
+        <v>179285.002606108</v>
       </c>
       <c r="G12">
-        <v>0.458</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ene_2021_08</t>
+          <t>ene_2011_01</t>
         </is>
       </c>
       <c r="B13">
-        <v>204063.4552689446</v>
+        <v>324880.38620132</v>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>44409</v>
+        <v>40544</v>
       </c>
       <c r="F13">
-        <v>97896.15892718828</v>
+        <v>173915.9389104127</v>
       </c>
       <c r="G13">
-        <v>0.48</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ene_2021_09</t>
+          <t>ene_2011_02</t>
         </is>
       </c>
       <c r="B14">
-        <v>212857.3559474506</v>
+        <v>336839.0682943152</v>
       </c>
       <c r="C14">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>44440</v>
+        <v>40575</v>
       </c>
       <c r="F14">
-        <v>103734.6343480506</v>
+        <v>183535.3000169128</v>
       </c>
       <c r="G14">
-        <v>0.487</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>ene_2011_03</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>334759.2598545218</v>
+      </c>
+      <c r="C15">
+        <v>2011</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40603</v>
+      </c>
+      <c r="F15">
+        <v>184315.7381160441</v>
+      </c>
+      <c r="G15">
+        <v>0.5510000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ene_2011_04</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>342963.8802856579</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40634</v>
+      </c>
+      <c r="F16">
+        <v>187401.0848067015</v>
+      </c>
+      <c r="G16">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ene_2011_05</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>347515.6475145868</v>
+      </c>
+      <c r="C17">
+        <v>2011</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40664</v>
+      </c>
+      <c r="F17">
+        <v>190399.9790629216</v>
+      </c>
+      <c r="G17">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ene_2011_06</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>341118.3354190508</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40695</v>
+      </c>
+      <c r="F18">
+        <v>185091.4520313445</v>
+      </c>
+      <c r="G18">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ene_2011_07</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>344658.1445402231</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40725</v>
+      </c>
+      <c r="F19">
+        <v>188109.6515938046</v>
+      </c>
+      <c r="G19">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ene_2011_08</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>345239.0916186575</v>
+      </c>
+      <c r="C20">
+        <v>2011</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40756</v>
+      </c>
+      <c r="F20">
+        <v>187318.3096629338</v>
+      </c>
+      <c r="G20">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ene_2011_09</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>356179.2281120659</v>
+      </c>
+      <c r="C21">
+        <v>2011</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40787</v>
+      </c>
+      <c r="F21">
+        <v>198369.6411985866</v>
+      </c>
+      <c r="G21">
+        <v>0.5570000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ene_2011_10</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>351068.063121481</v>
+      </c>
+      <c r="C22">
+        <v>2011</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40817</v>
+      </c>
+      <c r="F22">
+        <v>191219.8069598247</v>
+      </c>
+      <c r="G22">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ene_2011_11</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>359243.9798562271</v>
+      </c>
+      <c r="C23">
+        <v>2011</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40848</v>
+      </c>
+      <c r="F23">
+        <v>205672.6745841819</v>
+      </c>
+      <c r="G23">
+        <v>0.573</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ene_2011_12</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>349168.6227636635</v>
+      </c>
+      <c r="C24">
+        <v>2011</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40878</v>
+      </c>
+      <c r="F24">
+        <v>202262.4377210855</v>
+      </c>
+      <c r="G24">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ene_2012_01</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>341841.757462734</v>
+      </c>
+      <c r="C25">
+        <v>2012</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40909</v>
+      </c>
+      <c r="F25">
+        <v>192521.0395045053</v>
+      </c>
+      <c r="G25">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ene_2012_02</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>331911.8179592274</v>
+      </c>
+      <c r="C26">
+        <v>2012</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40940</v>
+      </c>
+      <c r="F26">
+        <v>178410.259672864</v>
+      </c>
+      <c r="G26">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ene_2012_03</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>332805.955028235</v>
+      </c>
+      <c r="C27">
+        <v>2012</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40969</v>
+      </c>
+      <c r="F27">
+        <v>176399.9782036507</v>
+      </c>
+      <c r="G27">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ene_2012_04</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>341520.6941773212</v>
+      </c>
+      <c r="C28">
+        <v>2012</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>41000</v>
+      </c>
+      <c r="F28">
+        <v>183934.0830965748</v>
+      </c>
+      <c r="G28">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ene_2012_05</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>346581.7695735119</v>
+      </c>
+      <c r="C29">
+        <v>2012</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41030</v>
+      </c>
+      <c r="F29">
+        <v>187947.03651869</v>
+      </c>
+      <c r="G29">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ene_2012_06</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>352746.7135510658</v>
+      </c>
+      <c r="C30">
+        <v>2012</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>41061</v>
+      </c>
+      <c r="F30">
+        <v>196736.2575636532</v>
+      </c>
+      <c r="G30">
+        <v>0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ene_2012_07</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>350202.2718211274</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>41091</v>
+      </c>
+      <c r="F31">
+        <v>190277.7538130673</v>
+      </c>
+      <c r="G31">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ene_2012_08</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>347606.8122495394</v>
+      </c>
+      <c r="C32">
+        <v>2012</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>41122</v>
+      </c>
+      <c r="F32">
+        <v>182469.504712379</v>
+      </c>
+      <c r="G32">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ene_2012_09</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>333934.3869228562</v>
+      </c>
+      <c r="C33">
+        <v>2012</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41153</v>
+      </c>
+      <c r="F33">
+        <v>174204.9243284705</v>
+      </c>
+      <c r="G33">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ene_2012_10</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>332536.2461223962</v>
+      </c>
+      <c r="C34">
+        <v>2012</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41183</v>
+      </c>
+      <c r="F34">
+        <v>177895.3258352408</v>
+      </c>
+      <c r="G34">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ene_2012_11</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>329333.043339561</v>
+      </c>
+      <c r="C35">
+        <v>2012</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
+        <v>41214</v>
+      </c>
+      <c r="F35">
+        <v>180154.7231718658</v>
+      </c>
+      <c r="G35">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ene_2012_12</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>330293.4276770004</v>
+      </c>
+      <c r="C36">
+        <v>2012</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>41244</v>
+      </c>
+      <c r="F36">
+        <v>170634.9464043384</v>
+      </c>
+      <c r="G36">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ene_2013_01</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>323554.944805831</v>
+      </c>
+      <c r="C37">
+        <v>2013</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>41275</v>
+      </c>
+      <c r="F37">
+        <v>166245.6166370679</v>
+      </c>
+      <c r="G37">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ene_2013_02</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>315559.9305239785</v>
+      </c>
+      <c r="C38">
+        <v>2013</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>41306</v>
+      </c>
+      <c r="F38">
+        <v>160107.1089321707</v>
+      </c>
+      <c r="G38">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ene_2013_03</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>325413.3136388878</v>
+      </c>
+      <c r="C39">
+        <v>2013</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>41334</v>
+      </c>
+      <c r="F39">
+        <v>165812.870808716</v>
+      </c>
+      <c r="G39">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ene_2013_04</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>329053.7458338944</v>
+      </c>
+      <c r="C40">
+        <v>2013</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>41365</v>
+      </c>
+      <c r="F40">
+        <v>169894.2633193306</v>
+      </c>
+      <c r="G40">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ene_2013_05</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>337685.386324719</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41395</v>
+      </c>
+      <c r="F41">
+        <v>170976.0688960188</v>
+      </c>
+      <c r="G41">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ene_2013_06</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>332616.4956955436</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>41426</v>
+      </c>
+      <c r="F42">
+        <v>167493.3438840843</v>
+      </c>
+      <c r="G42">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ene_2013_07</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>325798.084398823</v>
+      </c>
+      <c r="C43">
+        <v>2013</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2">
+        <v>41456</v>
+      </c>
+      <c r="F43">
+        <v>159743.3568202719</v>
+      </c>
+      <c r="G43">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ene_2013_08</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>324738.7759072385</v>
+      </c>
+      <c r="C44">
+        <v>2013</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>41487</v>
+      </c>
+      <c r="F44">
+        <v>156597.941082488</v>
+      </c>
+      <c r="G44">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ene_2013_09</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>318720.4309519942</v>
+      </c>
+      <c r="C45">
+        <v>2013</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>41518</v>
+      </c>
+      <c r="F45">
+        <v>149936.679213041</v>
+      </c>
+      <c r="G45">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ene_2013_10</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>317627.9129077845</v>
+      </c>
+      <c r="C46">
+        <v>2013</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>41548</v>
+      </c>
+      <c r="F46">
+        <v>150608.4142462833</v>
+      </c>
+      <c r="G46">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ene_2013_11</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>313439.5557328088</v>
+      </c>
+      <c r="C47">
+        <v>2013</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2">
+        <v>41579</v>
+      </c>
+      <c r="F47">
+        <v>151109.7373409907</v>
+      </c>
+      <c r="G47">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ene_2013_12</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>310706.7580290691</v>
+      </c>
+      <c r="C48">
+        <v>2013</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2">
+        <v>41609</v>
+      </c>
+      <c r="F48">
+        <v>153927.7107992751</v>
+      </c>
+      <c r="G48">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ene_2014_01</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>311775.7665379649</v>
+      </c>
+      <c r="C49">
+        <v>2014</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>41640</v>
+      </c>
+      <c r="F49">
+        <v>149836.9951085191</v>
+      </c>
+      <c r="G49">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ene_2014_02</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>313368.0935302629</v>
+      </c>
+      <c r="C50">
+        <v>2014</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>41671</v>
+      </c>
+      <c r="F50">
+        <v>152556.9146761217</v>
+      </c>
+      <c r="G50">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ene_2014_03</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>312824.5939792516</v>
+      </c>
+      <c r="C51">
+        <v>2014</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>41699</v>
+      </c>
+      <c r="F51">
+        <v>151809.0719728881</v>
+      </c>
+      <c r="G51">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ene_2014_04</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>323797.2746353635</v>
+      </c>
+      <c r="C52">
+        <v>2014</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2">
+        <v>41730</v>
+      </c>
+      <c r="F52">
+        <v>163835.2304246981</v>
+      </c>
+      <c r="G52">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ene_2014_05</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>325836.8130512938</v>
+      </c>
+      <c r="C53">
+        <v>2014</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>41760</v>
+      </c>
+      <c r="F53">
+        <v>164560.3923913674</v>
+      </c>
+      <c r="G53">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ene_2014_06</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>339811.66855234</v>
+      </c>
+      <c r="C54">
+        <v>2014</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>41791</v>
+      </c>
+      <c r="F54">
+        <v>173748.7784206373</v>
+      </c>
+      <c r="G54">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ene_2014_07</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>338588.2525207409</v>
+      </c>
+      <c r="C55">
+        <v>2014</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2">
+        <v>41821</v>
+      </c>
+      <c r="F55">
+        <v>176823.2362916998</v>
+      </c>
+      <c r="G55">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ene_2014_08</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>342103.2274163144</v>
+      </c>
+      <c r="C56">
+        <v>2014</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>41852</v>
+      </c>
+      <c r="F56">
+        <v>176809.876493194</v>
+      </c>
+      <c r="G56">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ene_2014_09</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>338027.140471132</v>
+      </c>
+      <c r="C57">
+        <v>2014</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>41883</v>
+      </c>
+      <c r="F57">
+        <v>177556.2536536161</v>
+      </c>
+      <c r="G57">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ene_2014_10</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>321510.343141636</v>
+      </c>
+      <c r="C58">
+        <v>2014</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <v>41913</v>
+      </c>
+      <c r="F58">
+        <v>164674.9873008</v>
+      </c>
+      <c r="G58">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ene_2014_11</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>311888.8367485598</v>
+      </c>
+      <c r="C59">
+        <v>2014</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>41944</v>
+      </c>
+      <c r="F59">
+        <v>164166.7908417026</v>
+      </c>
+      <c r="G59">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ene_2014_12</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>288004.2996125264</v>
+      </c>
+      <c r="C60">
+        <v>2014</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2">
+        <v>41974</v>
+      </c>
+      <c r="F60">
+        <v>150261.5840871755</v>
+      </c>
+      <c r="G60">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ene_2015_01</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>289436.9797459561</v>
+      </c>
+      <c r="C61">
+        <v>2015</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>42005</v>
+      </c>
+      <c r="F61">
+        <v>152205.1483093831</v>
+      </c>
+      <c r="G61">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ene_2015_02</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>280768.2498179753</v>
+      </c>
+      <c r="C62">
+        <v>2015</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>42036</v>
+      </c>
+      <c r="F62">
+        <v>146077.2374082228</v>
+      </c>
+      <c r="G62">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ene_2015_03</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>298177.566236463</v>
+      </c>
+      <c r="C63">
+        <v>2015</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>42064</v>
+      </c>
+      <c r="F63">
+        <v>154333.5139989099</v>
+      </c>
+      <c r="G63">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ene_2015_04</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>302571.9253370129</v>
+      </c>
+      <c r="C64">
+        <v>2015</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2">
+        <v>42095</v>
+      </c>
+      <c r="F64">
+        <v>158983.7627924661</v>
+      </c>
+      <c r="G64">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ene_2015_05</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>311073.6425479027</v>
+      </c>
+      <c r="C65">
+        <v>2015</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>42125</v>
+      </c>
+      <c r="F65">
+        <v>161410.315445966</v>
+      </c>
+      <c r="G65">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ene_2015_06</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>322502.3756179238</v>
+      </c>
+      <c r="C66">
+        <v>2015</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2">
+        <v>42156</v>
+      </c>
+      <c r="F66">
+        <v>161048.9242266847</v>
+      </c>
+      <c r="G66">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ene_2015_07</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>323508.7872473589</v>
+      </c>
+      <c r="C67">
+        <v>2015</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>42186</v>
+      </c>
+      <c r="F67">
+        <v>157023.5573558334</v>
+      </c>
+      <c r="G67">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ene_2015_08</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>317597.9687076013</v>
+      </c>
+      <c r="C68">
+        <v>2015</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2">
+        <v>42217</v>
+      </c>
+      <c r="F68">
+        <v>152959.1226381266</v>
+      </c>
+      <c r="G68">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ene_2015_09</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>323236.6803046311</v>
+      </c>
+      <c r="C69">
+        <v>2015</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
+        <v>42248</v>
+      </c>
+      <c r="F69">
+        <v>151547.2241771404</v>
+      </c>
+      <c r="G69">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ene_2015_10</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>307469.3523219765</v>
+      </c>
+      <c r="C70">
+        <v>2015</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <v>42278</v>
+      </c>
+      <c r="F70">
+        <v>143171.9581940802</v>
+      </c>
+      <c r="G70">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ene_2015_11</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>315014.9866886496</v>
+      </c>
+      <c r="C71">
+        <v>2015</v>
+      </c>
+      <c r="D71">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2">
+        <v>42309</v>
+      </c>
+      <c r="F71">
+        <v>145623.3830542874</v>
+      </c>
+      <c r="G71">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ene_2015_12</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>311669.588695441</v>
+      </c>
+      <c r="C72">
+        <v>2015</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2">
+        <v>42339</v>
+      </c>
+      <c r="F72">
+        <v>135411.314384552</v>
+      </c>
+      <c r="G72">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ene_2016_01</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>314752.7301648894</v>
+      </c>
+      <c r="C73">
+        <v>2016</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>42370</v>
+      </c>
+      <c r="F73">
+        <v>138654.6312398776</v>
+      </c>
+      <c r="G73">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ene_2016_02</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>307483.8444090372</v>
+      </c>
+      <c r="C74">
+        <v>2016</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>42401</v>
+      </c>
+      <c r="F74">
+        <v>135840.9300022206</v>
+      </c>
+      <c r="G74">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ene_2016_03</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>317993.263653892</v>
+      </c>
+      <c r="C75">
+        <v>2016</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>42430</v>
+      </c>
+      <c r="F75">
+        <v>142854.5774332625</v>
+      </c>
+      <c r="G75">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ene_2016_04</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>322214.5978895333</v>
+      </c>
+      <c r="C76">
+        <v>2016</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2">
+        <v>42461</v>
+      </c>
+      <c r="F76">
+        <v>144309.4080712565</v>
+      </c>
+      <c r="G76">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ene_2016_05</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>327069.4962149759</v>
+      </c>
+      <c r="C77">
+        <v>2016</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2">
+        <v>42491</v>
+      </c>
+      <c r="F77">
+        <v>145686.9219254107</v>
+      </c>
+      <c r="G77">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ene_2016_06</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>321890.830923087</v>
+      </c>
+      <c r="C78">
+        <v>2016</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>42522</v>
+      </c>
+      <c r="F78">
+        <v>150950.6338633716</v>
+      </c>
+      <c r="G78">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ene_2016_07</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>317197.5129201781</v>
+      </c>
+      <c r="C79">
+        <v>2016</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2">
+        <v>42552</v>
+      </c>
+      <c r="F79">
+        <v>147060.6191843658</v>
+      </c>
+      <c r="G79">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ene_2016_08</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>314954.6721378573</v>
+      </c>
+      <c r="C80">
+        <v>2016</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2">
+        <v>42583</v>
+      </c>
+      <c r="F80">
+        <v>143462.793275429</v>
+      </c>
+      <c r="G80">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ene_2016_09</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>317109.8736972363</v>
+      </c>
+      <c r="C81">
+        <v>2016</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2">
+        <v>42614</v>
+      </c>
+      <c r="F81">
+        <v>133755.7998534035</v>
+      </c>
+      <c r="G81">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ene_2016_10</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>321431.8929799167</v>
+      </c>
+      <c r="C82">
+        <v>2016</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <v>42644</v>
+      </c>
+      <c r="F82">
+        <v>135495.264922424</v>
+      </c>
+      <c r="G82">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ene_2016_11</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>330783.8396604025</v>
+      </c>
+      <c r="C83">
+        <v>2016</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2">
+        <v>42675</v>
+      </c>
+      <c r="F83">
+        <v>144780.101933411</v>
+      </c>
+      <c r="G83">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ene_2016_12</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>323201.6013131802</v>
+      </c>
+      <c r="C84">
+        <v>2016</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2">
+        <v>42705</v>
+      </c>
+      <c r="F84">
+        <v>145091.2094338987</v>
+      </c>
+      <c r="G84">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ene_2017_01</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>313657.1184236359</v>
+      </c>
+      <c r="C85">
+        <v>2017</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>42736</v>
+      </c>
+      <c r="F85">
+        <v>139031.0789887047</v>
+      </c>
+      <c r="G85">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ene_2017_02</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>302756.6128436636</v>
+      </c>
+      <c r="C86">
+        <v>2017</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>42767</v>
+      </c>
+      <c r="F86">
+        <v>130649.9999241231</v>
+      </c>
+      <c r="G86">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ene_2017_03</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>292040.4139193103</v>
+      </c>
+      <c r="C87">
+        <v>2017</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
+        <v>42795</v>
+      </c>
+      <c r="F87">
+        <v>128994.5956600436</v>
+      </c>
+      <c r="G87">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ene_2017_04</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>295259.6042372862</v>
+      </c>
+      <c r="C88">
+        <v>2017</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2">
+        <v>42826</v>
+      </c>
+      <c r="F88">
+        <v>124872.3112669552</v>
+      </c>
+      <c r="G88">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ene_2017_05</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>300052.2684714503</v>
+      </c>
+      <c r="C89">
+        <v>2017</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" s="2">
+        <v>42856</v>
+      </c>
+      <c r="F89">
+        <v>126669.2441771921</v>
+      </c>
+      <c r="G89">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ene_2017_06</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>312826.4813612658</v>
+      </c>
+      <c r="C90">
+        <v>2017</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2">
+        <v>42887</v>
+      </c>
+      <c r="F90">
+        <v>139044.7864036258</v>
+      </c>
+      <c r="G90">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ene_2017_07</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>321515.5037440957</v>
+      </c>
+      <c r="C91">
+        <v>2017</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2">
+        <v>42917</v>
+      </c>
+      <c r="F91">
+        <v>144379.0846620341</v>
+      </c>
+      <c r="G91">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ene_2017_08</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>330052.8569076292</v>
+      </c>
+      <c r="C92">
+        <v>2017</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2">
+        <v>42948</v>
+      </c>
+      <c r="F92">
+        <v>154567.1257168567</v>
+      </c>
+      <c r="G92">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ene_2017_09</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>323325.4114320495</v>
+      </c>
+      <c r="C93">
+        <v>2017</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2">
+        <v>42979</v>
+      </c>
+      <c r="F93">
+        <v>145348.4526120301</v>
+      </c>
+      <c r="G93">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ene_2017_10</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>329015.405726357</v>
+      </c>
+      <c r="C94">
+        <v>2017</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F94">
+        <v>150254.4234596936</v>
+      </c>
+      <c r="G94">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ene_2017_11</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>318299.2421411392</v>
+      </c>
+      <c r="C95">
+        <v>2017</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2">
+        <v>43040</v>
+      </c>
+      <c r="F95">
+        <v>137435.2875614475</v>
+      </c>
+      <c r="G95">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ene_2017_12</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>337434.8414242129</v>
+      </c>
+      <c r="C96">
+        <v>2017</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2">
+        <v>43070</v>
+      </c>
+      <c r="F96">
+        <v>142502.7216239841</v>
+      </c>
+      <c r="G96">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ene_2018_01</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>323173.488394097</v>
+      </c>
+      <c r="C97">
+        <v>2018</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>43101</v>
+      </c>
+      <c r="F97">
+        <v>137054.6610759497</v>
+      </c>
+      <c r="G97">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ene_2018_02</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>327350.310730209</v>
+      </c>
+      <c r="C98">
+        <v>2018</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2">
+        <v>43132</v>
+      </c>
+      <c r="F98">
+        <v>145914.5939742315</v>
+      </c>
+      <c r="G98">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ene_2018_03</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>314013.7777630562</v>
+      </c>
+      <c r="C99">
+        <v>2018</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43160</v>
+      </c>
+      <c r="F99">
+        <v>138595.6235786583</v>
+      </c>
+      <c r="G99">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ene_2018_04</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>314116.6501095066</v>
+      </c>
+      <c r="C100">
+        <v>2018</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2">
+        <v>43191</v>
+      </c>
+      <c r="F100">
+        <v>138796.9082602618</v>
+      </c>
+      <c r="G100">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ene_2018_05</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>311940.3437558187</v>
+      </c>
+      <c r="C101">
+        <v>2018</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2">
+        <v>43221</v>
+      </c>
+      <c r="F101">
+        <v>139023.7375086545</v>
+      </c>
+      <c r="G101">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ene_2018_06</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>311878.911954898</v>
+      </c>
+      <c r="C102">
+        <v>2018</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43252</v>
+      </c>
+      <c r="F102">
+        <v>144102.2369781544</v>
+      </c>
+      <c r="G102">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ene_2018_07</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>317133.6064577046</v>
+      </c>
+      <c r="C103">
+        <v>2018</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2">
+        <v>43282</v>
+      </c>
+      <c r="F103">
+        <v>152006.8244286334</v>
+      </c>
+      <c r="G103">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ene_2018_08</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>305705.4102143709</v>
+      </c>
+      <c r="C104">
+        <v>2018</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43313</v>
+      </c>
+      <c r="F104">
+        <v>148213.8054116585</v>
+      </c>
+      <c r="G104">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ene_2018_09</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>305252.1031690012</v>
+      </c>
+      <c r="C105">
+        <v>2018</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2">
+        <v>43344</v>
+      </c>
+      <c r="F105">
+        <v>154083.6892768412</v>
+      </c>
+      <c r="G105">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ene_2018_10</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>308795.808742838</v>
+      </c>
+      <c r="C106">
+        <v>2018</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" s="2">
+        <v>43374</v>
+      </c>
+      <c r="F106">
+        <v>154304.574388756</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ene_2018_11</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>311910.6005136333</v>
+      </c>
+      <c r="C107">
+        <v>2018</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="E107" s="2">
+        <v>43405</v>
+      </c>
+      <c r="F107">
+        <v>153974.4594636463</v>
+      </c>
+      <c r="G107">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ene_2018_12</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>310360.7396701582</v>
+      </c>
+      <c r="C108">
+        <v>2018</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F108">
+        <v>148557.4860222134</v>
+      </c>
+      <c r="G108">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ene_2019_01</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>307822.8836032603</v>
+      </c>
+      <c r="C109">
+        <v>2019</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F109">
+        <v>139235.0998125276</v>
+      </c>
+      <c r="G109">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ene_2019_02</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>299644.9236229284</v>
+      </c>
+      <c r="C110">
+        <v>2019</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2">
+        <v>43497</v>
+      </c>
+      <c r="F110">
+        <v>142291.8918497855</v>
+      </c>
+      <c r="G110">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ene_2019_03</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>294752.176016436</v>
+      </c>
+      <c r="C111">
+        <v>2019</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43525</v>
+      </c>
+      <c r="F111">
+        <v>141857.6318644946</v>
+      </c>
+      <c r="G111">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ene_2019_04</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>312604.518575258</v>
+      </c>
+      <c r="C112">
+        <v>2019</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
+        <v>43556</v>
+      </c>
+      <c r="F112">
+        <v>147998.5031428723</v>
+      </c>
+      <c r="G112">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ene_2019_05</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>317450.7360819012</v>
+      </c>
+      <c r="C113">
+        <v>2019</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43586</v>
+      </c>
+      <c r="F113">
+        <v>147074.7979757022</v>
+      </c>
+      <c r="G113">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ene_2019_06</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>303835.7841113595</v>
+      </c>
+      <c r="C114">
+        <v>2019</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43617</v>
+      </c>
+      <c r="F114">
+        <v>152989.0366898293</v>
+      </c>
+      <c r="G114">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ene_2019_07</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>309832.5382757885</v>
+      </c>
+      <c r="C115">
+        <v>2019</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43647</v>
+      </c>
+      <c r="F115">
+        <v>152001.0602590898</v>
+      </c>
+      <c r="G115">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ene_2019_08</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>331348.1270205086</v>
+      </c>
+      <c r="C116">
+        <v>2019</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43678</v>
+      </c>
+      <c r="F116">
+        <v>162783.7632668043</v>
+      </c>
+      <c r="G116">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ene_2019_09</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>327087.7346337403</v>
+      </c>
+      <c r="C117">
+        <v>2019</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43709</v>
+      </c>
+      <c r="F117">
+        <v>152594.8219929707</v>
+      </c>
+      <c r="G117">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ene_2019_10</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>312401.9536849703</v>
+      </c>
+      <c r="C118">
+        <v>2019</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43739</v>
+      </c>
+      <c r="F118">
+        <v>151027.5692758204</v>
+      </c>
+      <c r="G118">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ene_2019_11</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>303337.6564528057</v>
+      </c>
+      <c r="C119">
+        <v>2019</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43770</v>
+      </c>
+      <c r="F119">
+        <v>145375.6874726951</v>
+      </c>
+      <c r="G119">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ene_2019_12</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>303147.492011802</v>
+      </c>
+      <c r="C120">
+        <v>2019</v>
+      </c>
+      <c r="D120">
+        <v>12</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43800</v>
+      </c>
+      <c r="F120">
+        <v>149589.2858704986</v>
+      </c>
+      <c r="G120">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ene_2020_01</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>283499.5331398767</v>
+      </c>
+      <c r="C121">
+        <v>2020</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F121">
+        <v>152820.9911559472</v>
+      </c>
+      <c r="G121">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ene_2020_02</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>275685.7759952015</v>
+      </c>
+      <c r="C122">
+        <v>2020</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F122">
+        <v>146509.8343344904</v>
+      </c>
+      <c r="G122">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ene_2020_03</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>230983.5477684684</v>
+      </c>
+      <c r="C123">
+        <v>2020</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F123">
+        <v>111137.9203109038</v>
+      </c>
+      <c r="G123">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ene_2020_04</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>183809.4669824288</v>
+      </c>
+      <c r="C124">
+        <v>2020</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F124">
+        <v>73186.93094349335</v>
+      </c>
+      <c r="G124">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ene_2020_05</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>164969.6561458805</v>
+      </c>
+      <c r="C125">
+        <v>2020</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F125">
+        <v>54557.51692535312</v>
+      </c>
+      <c r="G125">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ene_2020_06</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>159621.3271098133</v>
+      </c>
+      <c r="C126">
+        <v>2020</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F126">
+        <v>55160.00326667386</v>
+      </c>
+      <c r="G126">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ene_2020_07</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>166799.7539178142</v>
+      </c>
+      <c r="C127">
+        <v>2020</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44013</v>
+      </c>
+      <c r="F127">
+        <v>60804.20017659035</v>
+      </c>
+      <c r="G127">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ene_2020_08</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>169405.5981331022</v>
+      </c>
+      <c r="C128">
+        <v>2020</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44044</v>
+      </c>
+      <c r="F128">
+        <v>64925.02588439176</v>
+      </c>
+      <c r="G128">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ene_2020_09</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>164039.575644544</v>
+      </c>
+      <c r="C129">
+        <v>2020</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44075</v>
+      </c>
+      <c r="F129">
+        <v>66596.18273390549</v>
+      </c>
+      <c r="G129">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ene_2020_10</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>184439.7967150172</v>
+      </c>
+      <c r="C130">
+        <v>2020</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F130">
+        <v>76233.4083275149</v>
+      </c>
+      <c r="G130">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ene_2020_11</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>190495.1837860133</v>
+      </c>
+      <c r="C131">
+        <v>2020</v>
+      </c>
+      <c r="D131">
+        <v>11</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44136</v>
+      </c>
+      <c r="F131">
+        <v>78848.67817995341</v>
+      </c>
+      <c r="G131">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ene_2020_12</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>191761.8784604615</v>
+      </c>
+      <c r="C132">
+        <v>2020</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44166</v>
+      </c>
+      <c r="F132">
+        <v>87875.6797195746</v>
+      </c>
+      <c r="G132">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ene_2021_01</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>191061.6390015191</v>
+      </c>
+      <c r="C133">
+        <v>2021</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F133">
+        <v>87617.06909505287</v>
+      </c>
+      <c r="G133">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ene_2021_02</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>196965.2337081053</v>
+      </c>
+      <c r="C134">
+        <v>2021</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44228</v>
+      </c>
+      <c r="F134">
+        <v>88398.09196287178</v>
+      </c>
+      <c r="G134">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ene_2021_03</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>195461.137628981</v>
+      </c>
+      <c r="C135">
+        <v>2021</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44256</v>
+      </c>
+      <c r="F135">
+        <v>78799.6051524542</v>
+      </c>
+      <c r="G135">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ene_2021_04</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>197131.455702093</v>
+      </c>
+      <c r="C136">
+        <v>2021</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44287</v>
+      </c>
+      <c r="F136">
+        <v>78225.15936139587</v>
+      </c>
+      <c r="G136">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ene_2021_05</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>190195.9142827009</v>
+      </c>
+      <c r="C137">
+        <v>2021</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44317</v>
+      </c>
+      <c r="F137">
+        <v>79509.56670808405</v>
+      </c>
+      <c r="G137">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ene_2021_06</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>197311.2401013848</v>
+      </c>
+      <c r="C138">
+        <v>2021</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44348</v>
+      </c>
+      <c r="F138">
+        <v>86714.73119030202</v>
+      </c>
+      <c r="G138">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ene_2021_07</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>203028.3863178733</v>
+      </c>
+      <c r="C139">
+        <v>2021</v>
+      </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44378</v>
+      </c>
+      <c r="F139">
+        <v>92924.7739231006</v>
+      </c>
+      <c r="G139">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ene_2021_08</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>204063.4552689446</v>
+      </c>
+      <c r="C140">
+        <v>2021</v>
+      </c>
+      <c r="D140">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44409</v>
+      </c>
+      <c r="F140">
+        <v>97896.15892718828</v>
+      </c>
+      <c r="G140">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ene_2021_09</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>212857.3559474506</v>
+      </c>
+      <c r="C141">
+        <v>2021</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44440</v>
+      </c>
+      <c r="F141">
+        <v>103734.6343480506</v>
+      </c>
+      <c r="G141">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>ene_2021_10</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="B142">
         <v>214146.4051401479</v>
       </c>
-      <c r="C15">
+      <c r="C142">
         <v>2021</v>
       </c>
-      <c r="D15">
+      <c r="D142">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E142" s="2">
         <v>44470</v>
       </c>
-      <c r="F15">
+      <c r="F142">
         <v>105732.8005869631</v>
       </c>
-      <c r="G15">
+      <c r="G142">
         <v>0.494</v>
       </c>
     </row>
